--- a/data/trans_bre/P05B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P05B_R-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.2649825945653</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.4489784073593409</v>
+        <v>-0.4489784073593412</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6907307167580863</v>
@@ -649,7 +649,7 @@
         <v>0.9427247393912496</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2164814245057171</v>
+        <v>-0.2164814245057173</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4757462119248123</v>
+        <v>0.4197441581847121</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.348958249995809</v>
+        <v>-1.053307764059933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04654491470366105</v>
+        <v>0.1552286460103058</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.853623704089964</v>
+        <v>-1.851025320879492</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1117684511939188</v>
+        <v>0.08120148638220522</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.6279443271635651</v>
+        <v>-0.5483953451757702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.05361124543925278</v>
+        <v>0.01550619262507276</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6012302906975059</v>
+        <v>-0.6000641745401288</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.785825246934006</v>
+        <v>3.722806080737309</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8957133965254022</v>
+        <v>0.9734890068693645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.782684948081322</v>
+        <v>2.65855596872325</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6706380917393626</v>
+        <v>0.8768904470201417</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.643419810872489</v>
+        <v>1.596927152507087</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9772582237405492</v>
+        <v>1.183411695297734</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.470208606585736</v>
+        <v>3.373639724897884</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6363151325780644</v>
+        <v>0.7484892815406189</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2096518493479732</v>
+        <v>0.1128707605319449</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.4996510954037422</v>
+        <v>-0.529907483769234</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.233706951749678</v>
+        <v>-0.2064767829527138</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.03890178302894988</v>
+        <v>-0.0764609584537604</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.05738256412656665</v>
+        <v>0.03236406203664889</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2783550755909456</v>
+        <v>-0.280984651567092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1621633297385307</v>
+        <v>-0.142915874769071</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.110302818151411</v>
+        <v>-0.1214054812736687</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.934037994218604</v>
+        <v>2.886211865332842</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.396137683038743</v>
+        <v>1.36116801821241</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.464881215541776</v>
+        <v>1.435485741216338</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9765003294482985</v>
+        <v>0.9201947696638003</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.318803624336782</v>
+        <v>1.308679532089022</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.119757988207575</v>
+        <v>1.132583150169148</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.358734855461356</v>
+        <v>1.339128326217195</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.049498352735632</v>
+        <v>3.085488917491628</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.375270321741944</v>
+        <v>-1.002068166857053</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.11010493257969</v>
+        <v>-3.213563272131292</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.168044914701404</v>
+        <v>-1.396191450039131</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.583514265722648</v>
+        <v>-1.676007398858103</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.3562768486939853</v>
+        <v>-0.268961559811687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.9024860226276572</v>
+        <v>-0.8898060326100939</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6415913236972067</v>
+        <v>-0.7108166508491385</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6157513404063168</v>
+        <v>-0.6042456858718396</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.586940664420398</v>
+        <v>3.833582705135651</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2522011150555066</v>
+        <v>0.1417654669815294</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.071335135287456</v>
+        <v>1.823915068704025</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.113052343994511</v>
+        <v>1.113507925484924</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.857668539993181</v>
+        <v>1.980116723016573</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4715399054837209</v>
+        <v>0.3354753006464975</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>4.395752286965301</v>
+        <v>4.189796426862211</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.133345743242496</v>
+        <v>1.11038823460301</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7991386661576906</v>
+        <v>0.8476752713935594</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.6909145866242287</v>
+        <v>-0.6993572535820054</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1188313144991448</v>
+        <v>0.1400419921169307</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.3906473630584013</v>
+        <v>-0.3030258298786716</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2266589256600832</v>
+        <v>0.2437333126441931</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3495469626668546</v>
+        <v>-0.3369454768156555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02913926008565305</v>
+        <v>0.06190501297340338</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2855401299155936</v>
+        <v>-0.2318163687665593</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.657558711128913</v>
+        <v>2.736719708660925</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6252355999482492</v>
+        <v>0.6000473089483825</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.381572526032328</v>
+        <v>1.414065481533451</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6336433260704371</v>
+        <v>0.6923225579768705</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.06597120349207</v>
+        <v>1.07960332234437</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4772686305360037</v>
+        <v>0.43824275156263</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.23278696183955</v>
+        <v>1.353356081502321</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7486692999180934</v>
+        <v>0.9159651032588417</v>
       </c>
     </row>
     <row r="16">
